--- a/src/main/resources/poi/report_sales_balance.xlsx
+++ b/src/main/resources/poi/report_sales_balance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884A242-E4E5-4314-A992-0238084320C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B1B1E6-E9F5-4AB9-8DD2-0B2E4EE1DD09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="3888" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/poi/report_sales_balance.xlsx
+++ b/src/main/resources/poi/report_sales_balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B1B1E6-E9F5-4AB9-8DD2-0B2E4EE1DD09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B678A0B9-9C12-4DF8-81CA-3FDC9E8423FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,6 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,7 +504,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -528,13 +529,13 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
